--- a/result/with_base/13/arousal/s13_1.xlsx
+++ b/result/with_base/13/arousal/s13_1.xlsx
@@ -9,8 +9,6 @@
   <sheets>
     <sheet name="condition" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="result" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="0.0" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="1.0" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
     <t>accuracy</t>
   </si>
@@ -84,15 +82,6 @@
   </si>
   <si>
     <t>train_loss</t>
-  </si>
-  <si>
-    <t>fpr</t>
-  </si>
-  <si>
-    <t>roc_auc</t>
-  </si>
-  <si>
-    <t>tpr</t>
   </si>
 </sst>
 </file>
@@ -492,10 +481,10 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9296875</v>
       </c>
       <c r="B2" t="n">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="C2" t="n">
         <v>1024</v>
@@ -510,13 +499,13 @@
         <v>15</v>
       </c>
       <c r="G2" t="n">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="H2" t="n">
         <v>0.5</v>
       </c>
       <c r="I2" t="n">
-        <v>5e-06</v>
+        <v>1e-06</v>
       </c>
       <c r="J2" t="s">
         <v>16</v>
@@ -542,7 +531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.8571428656578064</v>
       </c>
       <c r="C2" t="n">
-        <v>41672.466796875</v>
+        <v>11294.3017578125</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8628409125588157</v>
+        <v>0.8406643902554232</v>
       </c>
       <c r="E2" t="n">
-        <v>41677.82528409091</v>
+        <v>11295.83386948529</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -589,16 +578,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.9050000011920929</v>
+        <v>0.8895089328289032</v>
       </c>
       <c r="C3" t="n">
-        <v>40882.841796875</v>
+        <v>10990.99658203125</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8964772657914595</v>
+        <v>0.875262604040258</v>
       </c>
       <c r="E3" t="n">
-        <v>40884.16193181818</v>
+        <v>10991.71110983456</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -606,16 +595,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.9225000143051147</v>
+        <v>0.8973214328289032</v>
       </c>
       <c r="C4" t="n">
-        <v>40098.283203125</v>
+        <v>10692.07861328125</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9100000045516274</v>
+        <v>0.8918067216873169</v>
       </c>
       <c r="E4" t="n">
-        <v>40098.10227272727</v>
+        <v>10692.78073299632</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -623,16 +612,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.8950892984867096</v>
       </c>
       <c r="C5" t="n">
-        <v>39322.08203125</v>
+        <v>10398.06787109375</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9396590915593234</v>
+        <v>0.9001444332739886</v>
       </c>
       <c r="E5" t="n">
-        <v>39322.67045454546</v>
+        <v>10398.49471507353</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -640,16 +629,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9146205484867096</v>
       </c>
       <c r="C6" t="n">
-        <v>38561.130859375</v>
+        <v>10110.36669921875</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9317045536908236</v>
+        <v>0.9240414920975181</v>
       </c>
       <c r="E6" t="n">
-        <v>38562.01242897727</v>
+        <v>10110.50126378676</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -657,16 +646,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9274553656578064</v>
       </c>
       <c r="C7" t="n">
-        <v>37811.59375</v>
+        <v>9828.25634765625</v>
       </c>
       <c r="D7" t="n">
-        <v>0.951136356050318</v>
+        <v>0.9208245803328121</v>
       </c>
       <c r="E7" t="n">
-        <v>37811.94602272727</v>
+        <v>9828.564568014706</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -674,16 +663,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9280133843421936</v>
       </c>
       <c r="C8" t="n">
-        <v>37075.861328125</v>
+        <v>9552.64599609375</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9539772705598311</v>
+        <v>0.9239758393343758</v>
       </c>
       <c r="E8" t="n">
-        <v>37076.32315340909</v>
+        <v>9552.650907628677</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -691,16 +680,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C9" t="n">
-        <v>36352.9765625</v>
+        <v>9283.041015625</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9669318307529796</v>
+        <v>0.9231880237074459</v>
       </c>
       <c r="E9" t="n">
-        <v>36352.70667613636</v>
+        <v>9283.201344209559</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -708,16 +697,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.9375</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C10" t="n">
-        <v>35643.83984375</v>
+        <v>9020.0078125</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9597727168690074</v>
+        <v>0.9436055667260114</v>
       </c>
       <c r="E10" t="n">
-        <v>35643.15944602273</v>
+        <v>9019.9140625</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -725,16 +714,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C11" t="n">
-        <v>34946.03515625</v>
+        <v>8763.6064453125</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9686363664540377</v>
+        <v>0.9409138665479773</v>
       </c>
       <c r="E11" t="n">
-        <v>34945.80894886364</v>
+        <v>8763.697782628677</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -742,16 +731,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9324776828289032</v>
       </c>
       <c r="C12" t="n">
-        <v>34261.302734375</v>
+        <v>8513.55712890625</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9718181978572499</v>
+        <v>0.9655330882352942</v>
       </c>
       <c r="E12" t="n">
-        <v>34261.25816761364</v>
+        <v>8513.241268382353</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -759,16 +748,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9497767984867096</v>
       </c>
       <c r="C13" t="n">
-        <v>33590.2265625</v>
+        <v>8269.6748046875</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9720454649491743</v>
+        <v>0.9552258393343758</v>
       </c>
       <c r="E13" t="n">
-        <v>33589.62428977273</v>
+        <v>8269.534294577206</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -776,16 +765,16 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.93359375</v>
       </c>
       <c r="C14" t="n">
-        <v>32930.564453125</v>
+        <v>8032.086669921875</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9802272807468068</v>
+        <v>0.9662552510990816</v>
       </c>
       <c r="E14" t="n">
-        <v>32930.20561079546</v>
+        <v>8031.841452205882</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -793,16 +782,16 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>0.9474999904632568</v>
+        <v>0.9369419515132904</v>
       </c>
       <c r="C15" t="n">
-        <v>32283.767578125</v>
+        <v>7800.748779296875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9812500097534873</v>
+        <v>0.9653361334520227</v>
       </c>
       <c r="E15" t="n">
-        <v>32283.21377840909</v>
+        <v>7800.400218290441</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -810,16 +799,16 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C16" t="n">
-        <v>31648.978515625</v>
+        <v>7575.097412109375</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9764772816137834</v>
+        <v>0.9753807783126831</v>
       </c>
       <c r="E16" t="n">
-        <v>31648.42684659091</v>
+        <v>7574.744198069853</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -827,16 +816,16 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.9441964328289032</v>
       </c>
       <c r="C17" t="n">
-        <v>31025.7646484375</v>
+        <v>7355.3740234375</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9845454692840576</v>
+        <v>0.9676339275696698</v>
       </c>
       <c r="E17" t="n">
-        <v>31025.27059659091</v>
+        <v>7355.267635569853</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -844,16 +833,16 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>0.9675000011920929</v>
+        <v>0.94921875</v>
       </c>
       <c r="C18" t="n">
-        <v>30414.55078125</v>
+        <v>7141.51416015625</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9796591021797874</v>
+        <v>0.9810924354721519</v>
       </c>
       <c r="E18" t="n">
-        <v>30414.033203125</v>
+        <v>7141.250832950368</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -861,16 +850,16 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>0.9724999964237213</v>
+        <v>0.95703125</v>
       </c>
       <c r="C19" t="n">
-        <v>29814.1435546875</v>
+        <v>6933.296875</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9888636469841003</v>
+        <v>0.9617253156269298</v>
       </c>
       <c r="E19" t="n">
-        <v>29813.90571732954</v>
+        <v>6933.193129595588</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -878,16 +867,16 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9397321343421936</v>
       </c>
       <c r="C20" t="n">
-        <v>29225.5615234375</v>
+        <v>6730.5029296875</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9852272813970392</v>
+        <v>0.9700630237074459</v>
       </c>
       <c r="E20" t="n">
-        <v>29225.49573863636</v>
+        <v>6730.311150045956</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -895,16 +884,16 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C21" t="n">
-        <v>28648.2197265625</v>
+        <v>6533.16455078125</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9879545569419861</v>
+        <v>0.9620535724303302</v>
       </c>
       <c r="E21" t="n">
-        <v>28647.92808948864</v>
+        <v>6533.019071691177</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -912,16 +901,16 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9453125</v>
       </c>
       <c r="C22" t="n">
-        <v>28081.732421875</v>
+        <v>6340.9931640625</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9855681928721342</v>
+        <v>0.9516150215092827</v>
       </c>
       <c r="E22" t="n">
-        <v>28081.41885653409</v>
+        <v>6341.013068704044</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -929,16 +918,16 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9614955484867096</v>
       </c>
       <c r="C23" t="n">
-        <v>27525.7646484375</v>
+        <v>6153.995849609375</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9885227355090055</v>
+        <v>0.9771533608436584</v>
       </c>
       <c r="E23" t="n">
-        <v>27525.49058948864</v>
+        <v>6153.868480009191</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -946,16 +935,16 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>0.9774999916553497</v>
+        <v>0.9665178656578064</v>
       </c>
       <c r="C24" t="n">
-        <v>26980.2236328125</v>
+        <v>5971.969482421875</v>
       </c>
       <c r="D24" t="n">
-        <v>0.991931823166934</v>
+        <v>0.9902836119427401</v>
       </c>
       <c r="E24" t="n">
-        <v>26980.05362215909</v>
+        <v>5971.812701056985</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -963,16 +952,16 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>0.9575000107288361</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C25" t="n">
-        <v>26445.6328125</v>
+        <v>5795.165771484375</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9786363731731068</v>
+        <v>0.9589023099226111</v>
       </c>
       <c r="E25" t="n">
-        <v>26445.13210227273</v>
+        <v>5794.936178768382</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -980,16 +969,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9375</v>
       </c>
       <c r="C26" t="n">
-        <v>25920.2919921875</v>
+        <v>5623.10595703125</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9920454621315002</v>
+        <v>0.9634322489009184</v>
       </c>
       <c r="E26" t="n">
-        <v>25920.04367897727</v>
+        <v>5622.670381433823</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -997,16 +986,16 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9419642984867096</v>
       </c>
       <c r="C27" t="n">
-        <v>25405.7939453125</v>
+        <v>5455.343017578125</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9837500127879056</v>
+        <v>0.9734768902554232</v>
       </c>
       <c r="E27" t="n">
-        <v>25405.21608664773</v>
+        <v>5455.052791819853</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1014,16 +1003,16 @@
         <v>27</v>
       </c>
       <c r="B28" t="n">
-        <v>0.9524999856948853</v>
+        <v>0.9447544515132904</v>
       </c>
       <c r="C28" t="n">
-        <v>24900.1533203125</v>
+        <v>5292.155517578125</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9878409179774198</v>
+        <v>0.9755120803328121</v>
       </c>
       <c r="E28" t="n">
-        <v>24899.86665482954</v>
+        <v>5292.035788143382</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1031,16 +1020,16 @@
         <v>28</v>
       </c>
       <c r="B29" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9436383843421936</v>
       </c>
       <c r="C29" t="n">
-        <v>24404.4794921875</v>
+        <v>5133.59765625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9876136454668912</v>
+        <v>0.9837184863931993</v>
       </c>
       <c r="E29" t="n">
-        <v>24404.14026988636</v>
+        <v>5133.442612591912</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1048,16 +1037,16 @@
         <v>29</v>
       </c>
       <c r="B30" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C30" t="n">
-        <v>23918.3173828125</v>
+        <v>4979.313232421875</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9820454662496393</v>
+        <v>0.9781381312538596</v>
       </c>
       <c r="E30" t="n">
-        <v>23917.86949573864</v>
+        <v>4979.223316865809</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1065,16 +1054,16 @@
         <v>30</v>
       </c>
       <c r="B31" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9319196343421936</v>
       </c>
       <c r="C31" t="n">
-        <v>23440.9833984375</v>
+        <v>4829.406494140625</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9885227355090055</v>
+        <v>0.9829963235294118</v>
       </c>
       <c r="E31" t="n">
-        <v>23440.67453835227</v>
+        <v>4829.196949678309</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1082,16 +1071,16 @@
         <v>31</v>
       </c>
       <c r="B32" t="n">
-        <v>0.9750000238418579</v>
+        <v>0.9575892984867096</v>
       </c>
       <c r="C32" t="n">
-        <v>22972.62109375</v>
+        <v>4683.477294921875</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9927272796630859</v>
+        <v>0.9773503156269298</v>
       </c>
       <c r="E32" t="n">
-        <v>22972.53462357954</v>
+        <v>4683.33065257353</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1099,16 +1088,16 @@
         <v>32</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9375</v>
+        <v>0.95703125</v>
       </c>
       <c r="C33" t="n">
-        <v>22513.62890625</v>
+        <v>4541.5537109375</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9921590956774625</v>
+        <v>0.9748555667260114</v>
       </c>
       <c r="E33" t="n">
-        <v>22513.36683238636</v>
+        <v>4541.507525275735</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1116,16 +1105,16 @@
         <v>33</v>
       </c>
       <c r="B34" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.95703125</v>
       </c>
       <c r="C34" t="n">
-        <v>22063.109375</v>
+        <v>4403.6064453125</v>
       </c>
       <c r="D34" t="n">
-        <v>0.9910227331248197</v>
+        <v>0.9874606097445768</v>
       </c>
       <c r="E34" t="n">
-        <v>22062.86878551136</v>
+        <v>4403.485121783088</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1133,16 +1122,16 @@
         <v>34</v>
       </c>
       <c r="B35" t="n">
-        <v>0.9699999988079071</v>
+        <v>0.9486607015132904</v>
       </c>
       <c r="C35" t="n">
-        <v>21620.9619140625</v>
+        <v>4269.53515625</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9959090948104858</v>
+        <v>0.9676995803328121</v>
       </c>
       <c r="E35" t="n">
-        <v>21620.81693892046</v>
+        <v>4269.446001838235</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1150,16 +1139,16 @@
         <v>35</v>
       </c>
       <c r="B36" t="n">
-        <v>0.929999977350235</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C36" t="n">
-        <v>21187.5810546875</v>
+        <v>4139.225341796875</v>
       </c>
       <c r="D36" t="n">
-        <v>0.9907954606142911</v>
+        <v>0.9702599784907173</v>
       </c>
       <c r="E36" t="n">
-        <v>21187.30823863636</v>
+        <v>4139.012005974265</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1167,16 +1156,16 @@
         <v>36</v>
       </c>
       <c r="B37" t="n">
-        <v>0.9424999952316284</v>
+        <v>0.9330357015132904</v>
       </c>
       <c r="C37" t="n">
-        <v>20762.3779296875</v>
+        <v>4012.526977539062</v>
       </c>
       <c r="D37" t="n">
-        <v>0.9878409179774198</v>
+        <v>0.9829306707662695</v>
       </c>
       <c r="E37" t="n">
-        <v>20761.98046875</v>
+        <v>4012.260512408088</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1184,16 +1173,16 @@
         <v>37</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.95703125</v>
       </c>
       <c r="C38" t="n">
-        <v>20344.91015625</v>
+        <v>3889.130004882812</v>
       </c>
       <c r="D38" t="n">
-        <v>0.9929545521736145</v>
+        <v>0.9772190136068007</v>
       </c>
       <c r="E38" t="n">
-        <v>20344.69122869318</v>
+        <v>3889.066133386948</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1201,16 +1190,16 @@
         <v>38</v>
       </c>
       <c r="B39" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9464285671710968</v>
       </c>
       <c r="C39" t="n">
-        <v>19935.66015625</v>
+        <v>3769.442260742188</v>
       </c>
       <c r="D39" t="n">
-        <v>0.9931818246841431</v>
+        <v>0.9829306707662695</v>
       </c>
       <c r="E39" t="n">
-        <v>19935.34534801136</v>
+        <v>3769.276338465073</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1218,16 +1207,16 @@
         <v>39</v>
       </c>
       <c r="B40" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9542410671710968</v>
       </c>
       <c r="C40" t="n">
-        <v>19534.0703125</v>
+        <v>3653.013549804688</v>
       </c>
       <c r="D40" t="n">
-        <v>0.996363639831543</v>
+        <v>0.9866727941176471</v>
       </c>
       <c r="E40" t="n">
-        <v>19533.76899857954</v>
+        <v>3652.863984949448</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1235,16 +1224,16 @@
         <v>40</v>
       </c>
       <c r="B41" t="n">
-        <v>0.9625000059604645</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C41" t="n">
-        <v>19140.0478515625</v>
+        <v>3539.850952148438</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9972727298736572</v>
+        <v>0.9820772058823529</v>
       </c>
       <c r="E41" t="n">
-        <v>19139.81782670454</v>
+        <v>3539.723977481618</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1252,16 +1241,16 @@
         <v>41</v>
       </c>
       <c r="B42" t="n">
-        <v>0.9549999833106995</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C42" t="n">
-        <v>18754.056640625</v>
+        <v>3429.894409179688</v>
       </c>
       <c r="D42" t="n">
-        <v>0.9861363768577576</v>
+        <v>0.9778098744504592</v>
       </c>
       <c r="E42" t="n">
-        <v>18753.44122869318</v>
+        <v>3429.765222886029</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1269,16 +1258,16 @@
         <v>42</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9550000131130219</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C43" t="n">
-        <v>18374.5009765625</v>
+        <v>3323.053344726562</v>
       </c>
       <c r="D43" t="n">
-        <v>0.9970454573631287</v>
+        <v>0.9833245803328121</v>
       </c>
       <c r="E43" t="n">
-        <v>18374.26242897727</v>
+        <v>3322.893841911765</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1286,16 +1275,16 @@
         <v>43</v>
       </c>
       <c r="B44" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.9408482015132904</v>
       </c>
       <c r="C44" t="n">
-        <v>18002.6396484375</v>
+        <v>3219.274169921875</v>
       </c>
       <c r="D44" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9548975825309753</v>
       </c>
       <c r="E44" t="n">
-        <v>18002.41193181818</v>
+        <v>3219.147748161765</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1303,16 +1292,16 @@
         <v>44</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9775000214576721</v>
+        <v>0.9536830484867096</v>
       </c>
       <c r="C45" t="n">
-        <v>17637.8681640625</v>
+        <v>3118.251831054688</v>
       </c>
       <c r="D45" t="n">
-        <v>0.9915909171104431</v>
+        <v>0.9780724784907173</v>
       </c>
       <c r="E45" t="n">
-        <v>17637.60653409091</v>
+        <v>3118.167724609375</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1320,16 +1309,16 @@
         <v>45</v>
       </c>
       <c r="B46" t="n">
-        <v>0.9399999976158142</v>
+        <v>0.9503348171710968</v>
       </c>
       <c r="C46" t="n">
-        <v>17279.9541015625</v>
+        <v>3020.308471679688</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9759059863931993</v>
       </c>
       <c r="E46" t="n">
-        <v>17279.67755681818</v>
+        <v>3020.175091911765</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1337,16 +1326,16 @@
         <v>46</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9600000083446503</v>
+        <v>0.9581473171710968</v>
       </c>
       <c r="C47" t="n">
-        <v>16928.974609375</v>
+        <v>2924.961547851562</v>
       </c>
       <c r="D47" t="n">
-        <v>0.9930681857195768</v>
+        <v>0.9873293077244478</v>
       </c>
       <c r="E47" t="n">
-        <v>16928.61860795454</v>
+        <v>2924.886618221507</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1354,16 +1343,16 @@
         <v>47</v>
       </c>
       <c r="B48" t="n">
-        <v>0.9475000202655792</v>
+        <v>0.9614955484867096</v>
       </c>
       <c r="C48" t="n">
-        <v>16584.42578125</v>
+        <v>2832.432006835938</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9943181872367859</v>
+        <v>0.9866727941176471</v>
       </c>
       <c r="E48" t="n">
-        <v>16584.18448153409</v>
+        <v>2832.373994715073</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1371,16 +1360,16 @@
         <v>48</v>
       </c>
       <c r="B49" t="n">
-        <v>0.949999988079071</v>
+        <v>0.9659598171710968</v>
       </c>
       <c r="C49" t="n">
-        <v>16246.97119140625</v>
+        <v>2742.613403320312</v>
       </c>
       <c r="D49" t="n">
-        <v>0.98147728768262</v>
+        <v>0.9828650215092827</v>
       </c>
       <c r="E49" t="n">
-        <v>16246.44859730114</v>
+        <v>2742.516084558823</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1388,16 +1377,16 @@
         <v>49</v>
       </c>
       <c r="B50" t="n">
-        <v>0.9650000035762787</v>
+        <v>0.94921875</v>
       </c>
       <c r="C50" t="n">
-        <v>15915.10595703125</v>
+        <v>2655.3349609375</v>
       </c>
       <c r="D50" t="n">
-        <v>0.9968181848526001</v>
+        <v>0.9880514705882353</v>
       </c>
       <c r="E50" t="n">
-        <v>15914.95143821023</v>
+        <v>2655.227438534007</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1405,894 +1394,16 @@
         <v>50</v>
       </c>
       <c r="B51" t="n">
-        <v>0.9725000262260437</v>
+        <v>0.9296875</v>
       </c>
       <c r="C51" t="n">
-        <v>15590.1875</v>
+        <v>2570.640014648438</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9820454662496393</v>
+        <v>0.9724264705882353</v>
       </c>
       <c r="E51" t="n">
-        <v>15589.98464133523</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" t="n">
-        <v>51</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C52" t="n">
-        <v>15271.31005859375</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.9986363649368286</v>
-      </c>
-      <c r="E52" t="n">
-        <v>15271.03790838068</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
-      <c r="B53" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C53" t="n">
-        <v>14958.5166015625</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.9905681881037626</v>
-      </c>
-      <c r="E53" t="n">
-        <v>14958.32457386364</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" t="n">
-        <v>53</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C54" t="n">
-        <v>14651.7939453125</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E54" t="n">
-        <v>14651.53275923295</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" t="n">
-        <v>54</v>
-      </c>
-      <c r="B55" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C55" t="n">
-        <v>14350.83154296875</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.9905681881037626</v>
-      </c>
-      <c r="E55" t="n">
-        <v>14350.65669389205</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" t="n">
-        <v>55</v>
-      </c>
-      <c r="B56" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C56" t="n">
-        <v>14055.58056640625</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.9981818199157715</v>
-      </c>
-      <c r="E56" t="n">
-        <v>14055.48570667614</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" t="n">
-        <v>56</v>
-      </c>
-      <c r="B57" t="n">
-        <v>0.9775000214576721</v>
-      </c>
-      <c r="C57" t="n">
-        <v>13766.08251953125</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.9945454597473145</v>
-      </c>
-      <c r="E57" t="n">
-        <v>13765.97833806818</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" t="n">
-        <v>57</v>
-      </c>
-      <c r="B58" t="n">
-        <v>0.9699999988079071</v>
-      </c>
-      <c r="C58" t="n">
-        <v>13482.1416015625</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.9952272772789001</v>
-      </c>
-      <c r="E58" t="n">
-        <v>13482.00807883523</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" t="n">
-        <v>58</v>
-      </c>
-      <c r="B59" t="n">
-        <v>0.9675000011920929</v>
-      </c>
-      <c r="C59" t="n">
-        <v>13203.6630859375</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.9913636445999146</v>
-      </c>
-      <c r="E59" t="n">
-        <v>13203.50790127841</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" t="n">
-        <v>59</v>
-      </c>
-      <c r="B60" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C60" t="n">
-        <v>12930.70751953125</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.9890909194946289</v>
-      </c>
-      <c r="E60" t="n">
-        <v>12930.37357954545</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" t="n">
-        <v>60</v>
-      </c>
-      <c r="B61" t="n">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="C61" t="n">
-        <v>12662.53759765625</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.9971590909090909</v>
-      </c>
-      <c r="E61" t="n">
-        <v>12662.41290838068</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" t="n">
-        <v>61</v>
-      </c>
-      <c r="B62" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C62" t="n">
-        <v>12399.79443359375</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.9954545497894287</v>
-      </c>
-      <c r="E62" t="n">
-        <v>12399.65696022727</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" t="n">
-        <v>62</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C63" t="n">
-        <v>12142.099609375</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.9967045458880338</v>
-      </c>
-      <c r="E63" t="n">
-        <v>12141.91610440341</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" t="n">
-        <v>63</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C64" t="n">
-        <v>11889.4599609375</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.985909104347229</v>
-      </c>
-      <c r="E64" t="n">
-        <v>11889.23002485795</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" t="n">
-        <v>64</v>
-      </c>
-      <c r="B65" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C65" t="n">
-        <v>11641.55078125</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.993977275761691</v>
-      </c>
-      <c r="E65" t="n">
-        <v>11641.30104758523</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" t="n">
-        <v>65</v>
-      </c>
-      <c r="B66" t="n">
-        <v>0.9399999976158142</v>
-      </c>
-      <c r="C66" t="n">
-        <v>11398.44580078125</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.9900000095367432</v>
-      </c>
-      <c r="E66" t="n">
-        <v>11398.21377840909</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" t="n">
-        <v>66</v>
-      </c>
-      <c r="B67" t="n">
-        <v>0.9750000238418579</v>
-      </c>
-      <c r="C67" t="n">
-        <v>11159.9248046875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.9972727298736572</v>
-      </c>
-      <c r="E67" t="n">
-        <v>11159.763671875</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" t="n">
-        <v>67</v>
-      </c>
-      <c r="B68" t="n">
-        <v>0.9650000035762787</v>
-      </c>
-      <c r="C68" t="n">
-        <v>10926.04150390625</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E68" t="n">
-        <v>10925.97194602273</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" t="n">
-        <v>68</v>
-      </c>
-      <c r="B69" t="n">
-        <v>0.9525000154972076</v>
-      </c>
-      <c r="C69" t="n">
-        <v>10696.8603515625</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E69" t="n">
-        <v>10696.69140625</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" t="n">
-        <v>69</v>
-      </c>
-      <c r="B70" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C70" t="n">
-        <v>10472.05029296875</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E70" t="n">
-        <v>10471.84889914773</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" t="n">
-        <v>70</v>
-      </c>
-      <c r="B71" t="n">
-        <v>0.9500000178813934</v>
-      </c>
-      <c r="C71" t="n">
-        <v>10251.53662109375</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0.9925000071525574</v>
-      </c>
-      <c r="E71" t="n">
-        <v>10251.37322443182</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
-      <c r="A72" t="n">
-        <v>71</v>
-      </c>
-      <c r="B72" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C72" t="n">
-        <v>10035.296875</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0.9977272748947144</v>
-      </c>
-      <c r="E72" t="n">
-        <v>10035.14985795455</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
-      <c r="A73" t="n">
-        <v>72</v>
-      </c>
-      <c r="B73" t="n">
-        <v>0.9475000202655792</v>
-      </c>
-      <c r="C73" t="n">
-        <v>9823.34765625</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0.9953409108248624</v>
-      </c>
-      <c r="E73" t="n">
-        <v>9823.152521306818</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
-      <c r="A74" t="n">
-        <v>73</v>
-      </c>
-      <c r="B74" t="n">
-        <v>0.9625000059604645</v>
-      </c>
-      <c r="C74" t="n">
-        <v>9615.3857421875</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0.9959090948104858</v>
-      </c>
-      <c r="E74" t="n">
-        <v>9615.277521306818</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
-      <c r="A75" t="n">
-        <v>74</v>
-      </c>
-      <c r="B75" t="n">
-        <v>0.9600000083446503</v>
-      </c>
-      <c r="C75" t="n">
-        <v>9411.568359375</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0.9921590956774625</v>
-      </c>
-      <c r="E75" t="n">
-        <v>9411.464044744318</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
-      <c r="A76" t="n">
-        <v>75</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.9424999952316284</v>
-      </c>
-      <c r="C76" t="n">
-        <v>9211.8837890625</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.9876136454668912</v>
-      </c>
-      <c r="E76" t="n">
-        <v>9211.633611505682</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
-      <c r="A77" t="n">
-        <v>76</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0.9350000023841858</v>
-      </c>
-      <c r="C77" t="n">
-        <v>9015.875</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0.9944318207827482</v>
-      </c>
-      <c r="E77" t="n">
-        <v>9015.648259943182</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
-      <c r="A78" t="n">
-        <v>77</v>
-      </c>
-      <c r="B78" t="n">
-        <v>0.9549999833106995</v>
-      </c>
-      <c r="C78" t="n">
-        <v>8823.88232421875</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0.9842045523903586</v>
-      </c>
-      <c r="E78" t="n">
-        <v>8823.565962357954</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
-      <c r="A79" t="n">
-        <v>78</v>
-      </c>
-      <c r="B79" t="n">
-        <v>0.9574999809265137</v>
-      </c>
-      <c r="C79" t="n">
-        <v>8635.31103515625</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0.991931823166934</v>
-      </c>
-      <c r="E79" t="n">
-        <v>8635.1572265625</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
-      <c r="A80" t="n">
-        <v>79</v>
-      </c>
-      <c r="B80" t="n">
-        <v>0.9550000131130219</v>
-      </c>
-      <c r="C80" t="n">
-        <v>8450.5673828125</v>
-      </c>
-      <c r="D80" t="n">
-        <v>0.9965909123420715</v>
-      </c>
-      <c r="E80" t="n">
-        <v>8450.474875710228</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
-      <c r="A81" t="n">
-        <v>80</v>
-      </c>
-      <c r="B81" t="n">
-        <v>0.9550000131130219</v>
-      </c>
-      <c r="C81" t="n">
-        <v>8269.5732421875</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0.9920454621315002</v>
-      </c>
-      <c r="E81" t="n">
-        <v>8269.444069602272</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.1612903225806452</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.2258064516129032</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.2903225806451613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.3548387096774194</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.6129032258064516</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.004784688995215311</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.6129032258064516</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.004784688995215311</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.8709677419354839</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.01913875598086124</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.8709677419354839</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.01913875598086124</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9354838709677419</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.05741626794258373</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9354838709677419</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.05741626794258373</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.967741935483871</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.07655502392344497</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.967741935483871</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.07655502392344497</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.7464114832535885</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="n">
-        <v>0</v>
-      </c>
-      <c r="B3" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.7703349282296651</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" t="n">
-        <v>0</v>
-      </c>
-      <c r="B4" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.784688995215311</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.8038277511961722</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" t="n">
-        <v>0</v>
-      </c>
-      <c r="B6" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.9234449760765551</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B7" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.9234449760765551</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" t="n">
-        <v>0.03225806451612903</v>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.9425837320574163</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.9425837320574163</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="n">
-        <v>0.06451612903225806</v>
-      </c>
-      <c r="B10" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.9808612440191388</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="n">
-        <v>0.1290322580645161</v>
-      </c>
-      <c r="B11" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.9808612440191388</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" t="n">
-        <v>0.1290322580645161</v>
-      </c>
-      <c r="B12" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.9952153110047847</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="n">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.9952153110047847</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="n">
-        <v>0.3870967741935484</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0.9932088285229203</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
+        <v>2570.512149586397</v>
       </c>
     </row>
   </sheetData>
